--- a/1.1-exercicio-pessoas/Pasta1.xlsx
+++ b/1.1-exercicio-pessoas/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Atividades\1.1-exercicio-pessoas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4EC514F-7906-466F-B866-E251DAB1FFDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DAA5F9-8660-4CCC-B12E-95D327F5AD07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7603B138-9784-433C-AAE5-3EC8FAC1AFCB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -36,77 +36,44 @@
     <t>IDPessoa</t>
   </si>
   <si>
-    <t>Jose Tadeu</t>
-  </si>
-  <si>
-    <t>Habilitação</t>
-  </si>
-  <si>
     <t>IDCNH</t>
   </si>
   <si>
     <t>Numero</t>
   </si>
   <si>
-    <t>IDTelefone</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
-    <t>Francisco Carlos</t>
-  </si>
-  <si>
-    <t>Carlos Pedro</t>
-  </si>
-  <si>
-    <t>Valmir neves</t>
-  </si>
-  <si>
-    <t>Carlos Eduardo</t>
-  </si>
-  <si>
-    <t>FranciscoTenorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t>Maria Aparecida</t>
-  </si>
-  <si>
-    <t>IDEmail</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Maira@yarool</t>
-  </si>
-  <si>
-    <t>jose@mmerlin</t>
-  </si>
-  <si>
-    <t>jose@gmail</t>
-  </si>
-  <si>
-    <t>Carlos@ig</t>
-  </si>
-  <si>
-    <t>Francisco@toia</t>
-  </si>
-  <si>
-    <t>Maria@gmail</t>
-  </si>
-  <si>
-    <t>jose@yarool</t>
+    <t>IDPessoa(PK)</t>
+  </si>
+  <si>
+    <t>IDTelefone(PK)</t>
+  </si>
+  <si>
+    <t>IDPessoa(FK)</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>IDEmail(PK)</t>
+  </si>
+  <si>
+    <t>Edereço</t>
+  </si>
+  <si>
+    <t>Habillitação</t>
+  </si>
+  <si>
+    <t>IDCNH(PK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,48 +83,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,30 +106,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,30 +141,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Célula de Verificação" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,267 +520,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F2ACCC-6406-4014-9399-2B0C2C02D3B2}">
-  <dimension ref="A3:L28"/>
+  <dimension ref="C6:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="P7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>978694578</v>
-      </c>
-      <c r="F5">
+      <c r="M8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>5451111511</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>915789456</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>4555454454</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>922147788</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>4545454445</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>911223344</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>4645645454</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>977889910</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>484555445</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>945881136</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>54545455456</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>779922443</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>54545564011</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="11"/>
+      <c r="I28" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" xr:uid="{B6846F4C-4757-4B9B-8BC5-E1748623F13C}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{1F9E476A-879D-4246-98E5-EC41A3020CCB}"/>
-    <hyperlink ref="L7" r:id="rId3" xr:uid="{6D4206C5-9029-4216-B316-FFF80BDA5500}"/>
-    <hyperlink ref="L8" r:id="rId4" xr:uid="{4B9321CD-E5C9-40DA-A2FD-B494E5C0134E}"/>
-    <hyperlink ref="L9" r:id="rId5" xr:uid="{53E66480-6473-47EE-94DC-F16B5FCF02E9}"/>
-    <hyperlink ref="L10" r:id="rId6" xr:uid="{C8F2766E-807C-45CF-8D02-2647EB7A9CDD}"/>
-    <hyperlink ref="L11" r:id="rId7" xr:uid="{511E6998-4918-40EE-B420-9FB6120DA22C}"/>
-  </hyperlinks>
+  <mergeCells count="3">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="K7:M7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>